--- a/10.結合テスト/総合テスト仕様書_修正案.xlsx
+++ b/10.結合テスト/総合テスト仕様書_修正案.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D77E0B-D885-4E40-9729-F1DBCCE71BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9EB72D-9B79-4B21-93AD-02DAB8C1D5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="295">
   <si>
     <t>No</t>
     <phoneticPr fontId="7"/>
@@ -284,13 +284,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -3051,6 +3044,27 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>池原</t>
+    <rPh sb="0" eb="2">
+      <t>イケハラ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>金城</t>
+    <rPh sb="0" eb="2">
+      <t>キンジョウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -5013,8 +5027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6624DFF9-7096-4FD8-9861-A7904A8A7BC9}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5074,22 +5088,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="39">
-        <v>41762</v>
+        <v>44008</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="33"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="43">
+        <v>44011</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>294</v>
+      </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -5362,7 +5382,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -5466,13 +5486,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="H7" s="54" t="s">
         <v>169</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>170</v>
       </c>
       <c r="I7" s="217"/>
       <c r="J7" s="187"/>
@@ -5492,21 +5512,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
       <c r="G8" s="51"/>
       <c r="H8" s="60"/>
       <c r="I8" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
@@ -5519,21 +5539,21 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9" s="50"/>
       <c r="K9" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -5546,27 +5566,27 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K10" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="21"/>
@@ -5579,27 +5599,27 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="H11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K11" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -5612,27 +5632,27 @@
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K12" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -5645,27 +5665,27 @@
         <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -5678,29 +5698,29 @@
         <v>7</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K14" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -5713,10 +5733,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="17"/>
@@ -5724,10 +5744,10 @@
       <c r="H15" s="17"/>
       <c r="I15" s="64"/>
       <c r="J15" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -5740,10 +5760,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="17"/>
@@ -5752,7 +5772,7 @@
       <c r="I16" s="64"/>
       <c r="J16" s="50"/>
       <c r="K16" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -5765,10 +5785,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="17"/>
@@ -5776,10 +5796,10 @@
       <c r="H17" s="17"/>
       <c r="I17" s="64"/>
       <c r="J17" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K17" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -5792,7 +5812,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>19</v>
@@ -5800,13 +5820,13 @@
       <c r="E18" s="3"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="64"/>
       <c r="J18" s="50"/>
       <c r="K18" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -5819,7 +5839,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>19</v>
@@ -5827,15 +5847,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J19" s="50"/>
       <c r="K19" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -5848,25 +5868,25 @@
         <v>13</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J20" s="50"/>
       <c r="K20" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -5879,10 +5899,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="17"/>
@@ -5890,10 +5910,10 @@
       <c r="H21" s="17"/>
       <c r="I21" s="64"/>
       <c r="J21" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K21" s="68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -6019,10 +6039,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="197"/>
       <c r="I7" s="187"/>
@@ -6042,10 +6062,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="51"/>
@@ -6053,7 +6073,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="21"/>
@@ -6066,19 +6086,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -6091,20 +6111,20 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="3"/>
       <c r="I10" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="21"/>
@@ -6117,20 +6137,20 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="3"/>
       <c r="I11" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -6143,7 +6163,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>19</v>
@@ -6153,10 +6173,10 @@
       <c r="G12" s="51"/>
       <c r="H12" s="3"/>
       <c r="I12" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
@@ -6169,24 +6189,24 @@
         <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -6199,26 +6219,26 @@
         <v>7</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="G14" s="73" t="s">
-        <v>203</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="21"/>
@@ -6231,26 +6251,26 @@
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -6263,26 +6283,26 @@
         <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
@@ -6295,26 +6315,26 @@
         <v>10</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="21"/>
@@ -6327,24 +6347,24 @@
         <v>11</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="21"/>
@@ -6355,16 +6375,16 @@
   </sheetData>
   <autoFilter ref="B7:N7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6471,11 +6491,11 @@
         <v>2</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7" s="70"/>
       <c r="H7" s="70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I7" s="197"/>
       <c r="J7" s="187"/>
@@ -6495,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="51"/>
@@ -6507,7 +6527,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
@@ -6520,20 +6540,20 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -6546,27 +6566,27 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="21"/>
@@ -6579,27 +6599,27 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -6612,27 +6632,27 @@
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="60">
         <v>1</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
@@ -6645,14 +6665,14 @@
         <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13" s="60">
         <v>123</v>
@@ -6661,13 +6681,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -6680,14 +6700,14 @@
         <v>7</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14" s="60">
         <v>1</v>
@@ -6696,13 +6716,13 @@
         <v>123</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="21"/>
@@ -6715,14 +6735,14 @@
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="60">
         <v>1</v>
@@ -6731,13 +6751,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J15" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -6750,14 +6770,14 @@
         <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" s="60">
         <v>1</v>
@@ -6766,13 +6786,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="21"/>
@@ -6867,7 +6887,7 @@
     </row>
     <row r="7" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C7" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>26</v>
@@ -6879,22 +6899,22 @@
         <v>27</v>
       </c>
       <c r="G7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="J7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="L7" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -6902,13 +6922,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="27" t="b">
         <v>0</v>
@@ -6917,16 +6937,16 @@
         <v>43983</v>
       </c>
       <c r="I8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>47</v>
-      </c>
       <c r="L8" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
@@ -6934,36 +6954,36 @@
         <v>2</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="27" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>47</v>
-      </c>
       <c r="L9" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -6976,19 +6996,19 @@
     </row>
     <row r="12" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="F12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="G12" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -6999,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="26">
         <v>2</v>
@@ -7016,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="26">
         <v>2</v>
@@ -7033,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="26">
         <v>2</v>
@@ -7050,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="26">
         <v>2</v>
@@ -7067,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="26">
         <v>2</v>
@@ -7084,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F18" s="26">
         <v>1</v>
@@ -7095,7 +7115,7 @@
     </row>
     <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7104,16 +7124,16 @@
     </row>
     <row r="21" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C21" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>156</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -7124,7 +7144,7 @@
         <v>44008</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="26">
         <v>2000</v>
@@ -7132,7 +7152,7 @@
     </row>
     <row r="25" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7140,22 +7160,22 @@
     </row>
     <row r="26" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C26" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="23" t="s">
+      <c r="F26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="G26" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="H26" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -7169,7 +7189,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="27" t="b">
         <v>1</v>
@@ -7189,7 +7209,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="27" t="b">
         <v>0</v>
@@ -7209,7 +7229,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="27" t="b">
         <v>0</v>
@@ -7228,7 +7248,7 @@
     </row>
     <row r="32" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7236,16 +7256,16 @@
     </row>
     <row r="33" spans="3:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C33" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="E33" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>195</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -7304,7 +7324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C48BB6F-08D5-44DD-9EF0-66C2AD3684F3}">
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -7342,7 +7362,7 @@
     </row>
     <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -7426,10 +7446,10 @@
       <c r="H8" s="90"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="91"/>
       <c r="M8" s="91"/>
@@ -7453,10 +7473,10 @@
       <c r="H9" s="114"/>
       <c r="I9" s="113"/>
       <c r="J9" s="113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L9" s="115"/>
       <c r="M9" s="115"/>
@@ -7499,7 +7519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B22C78E-D7D1-4712-AFEA-D9D642F52814}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -7590,7 +7610,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G7" s="79" t="s">
         <v>6</v>
@@ -7614,10 +7634,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="107"/>
       <c r="F8" s="107"/>
@@ -7628,7 +7648,7 @@
         <v>23</v>
       </c>
       <c r="K8" s="107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" s="109"/>
       <c r="M8" s="109"/>
@@ -7641,13 +7661,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="101" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="101" t="s">
         <v>8</v>
@@ -7661,7 +7681,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L9" s="103"/>
       <c r="M9" s="103"/>
@@ -7674,19 +7694,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="83" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="84"/>
@@ -7694,7 +7714,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L10" s="85"/>
       <c r="M10" s="85"/>
@@ -7706,16 +7726,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="83" t="s">
         <v>8</v>
@@ -7723,10 +7743,10 @@
       <c r="H11" s="83"/>
       <c r="I11" s="84"/>
       <c r="J11" s="84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K11" s="83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L11" s="85"/>
       <c r="M11" s="85"/>
@@ -7738,27 +7758,27 @@
         <v>4</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H12" s="83"/>
       <c r="I12" s="84"/>
       <c r="J12" s="84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K12" s="83" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L12" s="85"/>
       <c r="M12" s="85"/>
@@ -7771,19 +7791,19 @@
         <v>6</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="83" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="83"/>
       <c r="I13" s="84"/>
@@ -7791,7 +7811,7 @@
         <v>24</v>
       </c>
       <c r="K13" s="83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
@@ -7803,27 +7823,27 @@
         <v>6</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="83" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H14" s="83"/>
       <c r="I14" s="84"/>
       <c r="J14" s="84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K14" s="83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L14" s="85"/>
       <c r="M14" s="85"/>
@@ -7836,19 +7856,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="83" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="F15" s="83" t="s">
-        <v>237</v>
-      </c>
       <c r="G15" s="83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="83"/>
       <c r="I15" s="84"/>
@@ -7856,7 +7876,7 @@
         <v>24</v>
       </c>
       <c r="K15" s="83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L15" s="85"/>
       <c r="M15" s="85"/>
@@ -7869,19 +7889,19 @@
         <v>9</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="83" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F16" s="83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" s="83"/>
       <c r="I16" s="84"/>
@@ -7889,7 +7909,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
@@ -7901,19 +7921,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="165" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F17" s="165" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G17" s="165" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H17" s="165"/>
       <c r="I17" s="166"/>
@@ -7921,7 +7941,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L17" s="167"/>
       <c r="M17" s="167"/>
@@ -7934,17 +7954,17 @@
         <v>11</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E18" s="95"/>
       <c r="F18" s="95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="95"/>
       <c r="I18" s="96"/>
@@ -7952,7 +7972,7 @@
         <v>24</v>
       </c>
       <c r="K18" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L18" s="97"/>
       <c r="M18" s="97"/>
@@ -8042,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="192" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="194" t="s">
         <v>4</v>
@@ -8084,16 +8104,16 @@
         <v>2</v>
       </c>
       <c r="F7" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>240</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>241</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J7" s="197"/>
       <c r="K7" s="197"/>
@@ -8112,10 +8132,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -8127,7 +8147,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -8140,13 +8160,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>8</v>
@@ -8160,10 +8180,10 @@
       <c r="I9" s="3"/>
       <c r="J9" s="134"/>
       <c r="K9" s="134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M9" s="130"/>
       <c r="N9" s="130"/>
@@ -8176,13 +8196,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>8</v>
@@ -8191,15 +8211,15 @@
         <v>8</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="136"/>
       <c r="K10" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M10" s="127"/>
       <c r="N10" s="127"/>
@@ -8212,19 +8232,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H11" s="64" t="s">
         <v>8</v>
@@ -8232,10 +8252,10 @@
       <c r="I11" s="64"/>
       <c r="J11" s="136"/>
       <c r="K11" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M11" s="127"/>
       <c r="N11" s="127"/>
@@ -8248,16 +8268,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -8268,10 +8288,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="134"/>
       <c r="K12" s="134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M12" s="130"/>
       <c r="N12" s="130"/>
@@ -8284,30 +8304,30 @@
         <v>6</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F13" s="64" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="136"/>
       <c r="K13" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M13" s="127"/>
       <c r="N13" s="127"/>
@@ -8320,30 +8340,30 @@
         <v>7</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G14" s="64" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="136"/>
       <c r="K14" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M14" s="127"/>
       <c r="N14" s="127"/>
@@ -8356,19 +8376,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F15" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="64" t="s">
         <v>244</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>245</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>8</v>
@@ -8376,10 +8396,10 @@
       <c r="I15" s="64"/>
       <c r="J15" s="136"/>
       <c r="K15" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M15" s="127"/>
       <c r="N15" s="127"/>
@@ -8392,30 +8412,30 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="134"/>
       <c r="K16" s="134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M16" s="130"/>
       <c r="N16" s="130"/>
@@ -8428,30 +8448,30 @@
         <v>10</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I17" s="64"/>
       <c r="J17" s="136"/>
       <c r="K17" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M17" s="127"/>
       <c r="N17" s="127"/>
@@ -8464,30 +8484,30 @@
         <v>11</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="136"/>
       <c r="K18" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M18" s="127"/>
       <c r="N18" s="127"/>
@@ -8500,30 +8520,30 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="134"/>
       <c r="K19" s="134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M19" s="130"/>
       <c r="N19" s="130"/>
@@ -8536,30 +8556,30 @@
         <v>13</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I20" s="64"/>
       <c r="J20" s="136"/>
       <c r="K20" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M20" s="127"/>
       <c r="N20" s="127"/>
@@ -8572,30 +8592,30 @@
         <v>14</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I21" s="64"/>
       <c r="J21" s="136"/>
       <c r="K21" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M21" s="127"/>
       <c r="N21" s="127"/>
@@ -8608,30 +8628,30 @@
         <v>15</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="G22" s="64" t="s">
-        <v>245</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I22" s="64"/>
       <c r="J22" s="136"/>
       <c r="K22" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L22" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M22" s="127"/>
       <c r="N22" s="127"/>
@@ -8644,32 +8664,32 @@
         <v>16</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I23" s="64"/>
       <c r="J23" s="136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M23" s="127"/>
       <c r="N23" s="127"/>
@@ -8682,32 +8702,32 @@
         <v>17</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H24" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="136" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K24" s="136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L24" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M24" s="127"/>
       <c r="N24" s="127"/>
@@ -8720,30 +8740,30 @@
         <v>18</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="142" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="142" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" s="142" t="s">
         <v>244</v>
       </c>
-      <c r="G25" s="142" t="s">
-        <v>245</v>
-      </c>
       <c r="H25" s="142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I25" s="142"/>
       <c r="J25" s="143"/>
       <c r="K25" s="143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L25" s="142" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M25" s="144"/>
       <c r="N25" s="144"/>
@@ -8756,10 +8776,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -8771,7 +8791,7 @@
         <v>23</v>
       </c>
       <c r="L26" s="64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M26" s="127"/>
       <c r="N26" s="127"/>
@@ -8784,26 +8804,26 @@
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="139"/>
       <c r="K27" s="140"/>
       <c r="L27" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M27" s="130"/>
       <c r="N27" s="130"/>
@@ -8816,26 +8836,26 @@
         <v>21</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="G28" s="64" t="s">
-        <v>245</v>
-      </c>
       <c r="H28" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I28" s="64"/>
       <c r="J28" s="136"/>
       <c r="K28" s="136"/>
       <c r="L28" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M28" s="127"/>
       <c r="N28" s="127"/>
@@ -8848,32 +8868,32 @@
         <v>22</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F29" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="G29" s="64" t="s">
-        <v>245</v>
-      </c>
       <c r="H29" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I29" s="64" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="136"/>
       <c r="K29" s="136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L29" s="64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M29" s="127"/>
       <c r="N29" s="127"/>
@@ -8885,32 +8905,32 @@
         <v>23</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F30" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="G30" s="64" t="s">
-        <v>245</v>
-      </c>
       <c r="H30" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J30" s="136"/>
       <c r="K30" s="136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L30" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M30" s="127"/>
       <c r="N30" s="127"/>
@@ -8923,32 +8943,32 @@
         <v>24</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F31" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="G31" s="64" t="s">
-        <v>245</v>
-      </c>
       <c r="H31" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J31" s="136"/>
       <c r="K31" s="136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M31" s="127"/>
       <c r="N31" s="127"/>
@@ -8961,30 +8981,30 @@
         <v>25</v>
       </c>
       <c r="C32" s="148" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="148" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="148"/>
       <c r="F32" s="148" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="G32" s="148" t="s">
-        <v>245</v>
-      </c>
       <c r="H32" s="148" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I32" s="148" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J32" s="149"/>
       <c r="K32" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L32" s="148" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M32" s="150"/>
       <c r="N32" s="150"/>
@@ -8996,10 +9016,10 @@
         <v>26</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -9009,7 +9029,7 @@
       <c r="J33" s="131"/>
       <c r="K33" s="131"/>
       <c r="L33" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
@@ -9022,28 +9042,28 @@
         <v>27</v>
       </c>
       <c r="C34" s="158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="158" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E34" s="158"/>
       <c r="F34" s="158" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G34" s="158"/>
       <c r="H34" s="158" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I34" s="158"/>
       <c r="J34" s="159" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K34" s="159" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="158" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M34" s="161"/>
       <c r="N34" s="161"/>
@@ -9191,7 +9211,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="89"/>
       <c r="F8" s="90"/>
@@ -9199,10 +9219,10 @@
       <c r="H8" s="170"/>
       <c r="I8" s="89"/>
       <c r="J8" s="123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L8" s="91"/>
       <c r="M8" s="91"/>
@@ -9218,7 +9238,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="125"/>
@@ -9226,10 +9246,10 @@
       <c r="H9" s="171"/>
       <c r="I9" s="64"/>
       <c r="J9" s="126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L9" s="127"/>
       <c r="M9" s="127"/>
@@ -9245,7 +9265,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="125"/>
@@ -9253,10 +9273,10 @@
       <c r="H10" s="171"/>
       <c r="I10" s="64"/>
       <c r="J10" s="126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L10" s="127"/>
       <c r="M10" s="127"/>
@@ -9271,7 +9291,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="142"/>
       <c r="F11" s="154"/>
@@ -9279,10 +9299,10 @@
       <c r="H11" s="178"/>
       <c r="I11" s="142"/>
       <c r="J11" s="155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="142" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L11" s="144"/>
       <c r="M11" s="144"/>
@@ -9295,10 +9315,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" s="158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="158"/>
       <c r="F12" s="172"/>
@@ -9307,7 +9327,7 @@
       <c r="I12" s="158"/>
       <c r="J12" s="174"/>
       <c r="K12" s="158" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L12" s="161"/>
       <c r="M12" s="161"/>
@@ -9440,16 +9460,16 @@
         <v>2</v>
       </c>
       <c r="F7" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="52" t="s">
         <v>98</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>99</v>
       </c>
       <c r="J7" s="197"/>
       <c r="K7" s="197"/>
@@ -9469,10 +9489,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
@@ -9482,7 +9502,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="50"/>
       <c r="L8" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="21"/>
@@ -9495,10 +9515,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
@@ -9510,7 +9530,7 @@
         <v>23</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -9523,10 +9543,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="17"/>
@@ -9534,13 +9554,13 @@
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
       <c r="J10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="21"/>
@@ -9553,10 +9573,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="17"/>
@@ -9564,13 +9584,13 @@
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
       <c r="J11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -9583,10 +9603,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
@@ -9595,10 +9615,10 @@
       <c r="I12" s="51"/>
       <c r="J12" s="16"/>
       <c r="K12" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="M12" s="20"/>
       <c r="N12" s="21"/>
@@ -9611,10 +9631,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="17"/>
@@ -9624,7 +9644,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="50"/>
       <c r="L13" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -9637,30 +9657,30 @@
         <v>7</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -9673,7 +9693,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>19</v>
@@ -9683,20 +9703,20 @@
         <v>44008</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -9709,7 +9729,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>19</v>
@@ -9719,20 +9739,20 @@
         <v>44008</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -9745,30 +9765,30 @@
         <v>10</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="59">
         <v>44008</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="60">
         <v>2000</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -9781,10 +9801,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="59">
@@ -9792,17 +9812,17 @@
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="60">
         <v>2000</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
@@ -9815,10 +9835,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="59">
@@ -9826,7 +9846,7 @@
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="60">
         <v>2000</v>
@@ -9834,7 +9854,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="50"/>
       <c r="L19" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -9847,10 +9867,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="59">
@@ -9858,17 +9878,17 @@
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="60">
         <v>2000</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -9881,10 +9901,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="59">
@@ -9892,7 +9912,7 @@
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="60">
         <v>2000</v>
@@ -9902,7 +9922,7 @@
         <v>23</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -9915,10 +9935,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="59">
@@ -9930,7 +9950,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="50"/>
       <c r="L22" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -9943,10 +9963,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="59">
@@ -9957,10 +9977,10 @@
       <c r="I23" s="60"/>
       <c r="J23" s="3"/>
       <c r="K23" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -9973,10 +9993,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="59">
@@ -9987,10 +10007,10 @@
       <c r="I24" s="60"/>
       <c r="J24" s="3"/>
       <c r="K24" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
@@ -10003,10 +10023,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="59">
@@ -10017,10 +10037,10 @@
       <c r="I25" s="60"/>
       <c r="J25" s="3"/>
       <c r="K25" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
@@ -10033,10 +10053,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="59">
@@ -10047,10 +10067,10 @@
       <c r="I26" s="60"/>
       <c r="J26" s="3"/>
       <c r="K26" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
@@ -10176,13 +10196,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="H7" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="I7" s="197"/>
       <c r="J7" s="187"/>
@@ -10202,10 +10222,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>19</v>
@@ -10218,7 +10238,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
@@ -10231,10 +10251,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
@@ -10245,7 +10265,7 @@
         <v>23</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -10258,10 +10278,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="17">
@@ -10273,10 +10293,10 @@
       <c r="H10" s="51"/>
       <c r="I10" s="3"/>
       <c r="J10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="21"/>
@@ -10289,10 +10309,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>19</v>
@@ -10303,7 +10323,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="50"/>
       <c r="K11" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -10316,10 +10336,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
@@ -10330,7 +10350,7 @@
         <v>23</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
@@ -10343,10 +10363,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="17"/>
@@ -10354,10 +10374,10 @@
       <c r="H13" s="60"/>
       <c r="I13" s="3"/>
       <c r="J13" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -10370,10 +10390,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>19</v>
@@ -10388,11 +10408,11 @@
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="50"/>
       <c r="K14" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -10405,21 +10425,21 @@
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="17"/>
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>
       <c r="I15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -10432,10 +10452,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="17"/>
@@ -10446,7 +10466,7 @@
         <v>23</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -10574,13 +10594,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="197"/>
       <c r="J7" s="187"/>
@@ -10600,21 +10620,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="51"/>
       <c r="I8" s="3"/>
       <c r="J8" s="50"/>
       <c r="K8" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -10627,10 +10647,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
@@ -10638,10 +10658,10 @@
       <c r="H9" s="51"/>
       <c r="I9" s="3"/>
       <c r="J9" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -10654,10 +10674,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="17"/>
@@ -10668,7 +10688,7 @@
         <v>23</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -10681,10 +10701,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="17"/>
@@ -10692,10 +10712,10 @@
       <c r="H11" s="51"/>
       <c r="I11" s="3"/>
       <c r="J11" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -10708,10 +10728,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="17"/>
@@ -10719,10 +10739,10 @@
       <c r="H12" s="51"/>
       <c r="I12" s="3"/>
       <c r="J12" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -10735,25 +10755,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -10766,25 +10786,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -10797,7 +10817,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>19</v>
@@ -10805,15 +10825,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="51"/>
       <c r="I15" s="3"/>
       <c r="J15" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -10826,7 +10846,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>19</v>
@@ -10834,15 +10854,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="17"/>
       <c r="G16" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="3"/>
       <c r="J16" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -10974,16 +10994,16 @@
         <v>2</v>
       </c>
       <c r="F7" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="I7" s="54" t="s">
         <v>158</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>159</v>
       </c>
       <c r="J7" s="197"/>
       <c r="K7" s="187"/>
@@ -11003,19 +11023,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="60">
         <v>2000</v>
@@ -11024,7 +11044,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="21"/>
@@ -11037,7 +11057,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>19</v>
@@ -11047,14 +11067,14 @@
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -11067,7 +11087,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="3"/>
@@ -11079,10 +11099,10 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="21"/>
@@ -11095,7 +11115,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="3"/>
@@ -11108,7 +11128,7 @@
         <v>23</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
